--- a/src/experiment/results/wilcoxon/colon/both/RFESVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/colon/both/RFESVM_auc_folds.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>500</v>
@@ -522,7 +522,7 @@
         <v>0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>500</v>
@@ -548,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8125</v>
+        <v>0.6571428571428573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>500</v>
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>500</v>
@@ -606,10 +606,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4571428571428572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>500</v>
